--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="662" documentId="6_{1829D431-C2FB-4377-8E69-3055CEEDA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A67FBA-89BA-4653-B4C8-06B4443A51BB}"/>
+  <xr:revisionPtr revIDLastSave="679" documentId="6_{1829D431-C2FB-4377-8E69-3055CEEDA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CDA1ED3-CED5-4FF8-953E-3AC3417B608B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="ref" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Values_Master!$A$1:$E$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Values_Master!$A$1:$E$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
   <si>
     <t>Date created</t>
   </si>
@@ -443,12 +443,6 @@
     <t>module thermal conductor</t>
   </si>
   <si>
-    <t>module compression plates</t>
-  </si>
-  <si>
-    <t>battery jacket</t>
-  </si>
-  <si>
     <t>module interconnects</t>
   </si>
   <si>
@@ -536,202 +530,40 @@
     <t>thickness</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>aluminium, wrought alloy</t>
-  </si>
-  <si>
-    <t>anode active material (synthetic graphite)</t>
-  </si>
-  <si>
-    <t>anode binder (CMC)</t>
-  </si>
-  <si>
-    <t>anode binder additive (SBR)</t>
-  </si>
-  <si>
-    <t>anode carbon black</t>
-  </si>
-  <si>
     <t>anode current collector Cu (13um)</t>
   </si>
   <si>
     <t>anode current collector Cu (14um)</t>
   </si>
   <si>
-    <t>anode electrode scrap</t>
-  </si>
-  <si>
-    <t>anode slurry</t>
-  </si>
-  <si>
-    <t>battery management system</t>
-  </si>
-  <si>
-    <t>battery pack</t>
-  </si>
-  <si>
-    <t>battery production scrap</t>
-  </si>
-  <si>
-    <t>binder solvent (deionised water)</t>
-  </si>
-  <si>
-    <t>binder solvent (NMP)</t>
-  </si>
-  <si>
-    <t>binder solvent recycled (NMP)</t>
-  </si>
-  <si>
-    <t>calendered anode rolls</t>
-  </si>
-  <si>
-    <t>calendered cathode rolls</t>
-  </si>
-  <si>
-    <t>cathode binder (PVDF)</t>
-  </si>
-  <si>
-    <t>cathode binder solvent waste</t>
-  </si>
-  <si>
-    <t>cathode carbon black</t>
-  </si>
-  <si>
     <t>cathode current collector Al (17um)</t>
   </si>
   <si>
     <t>cathode current collector Al (18um)</t>
   </si>
   <si>
-    <t>cathode electrode scrap</t>
-  </si>
-  <si>
-    <t>cathode slurry</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>cell scrap</t>
-  </si>
-  <si>
-    <t>coated anode</t>
-  </si>
-  <si>
-    <t>coated cathode</t>
-  </si>
-  <si>
-    <t>coated separator (5um+2um)</t>
-  </si>
-  <si>
-    <t>coated separator (7um+2um)</t>
-  </si>
-  <si>
-    <t>coated separator (9um+3um)</t>
-  </si>
-  <si>
-    <t>coolant</t>
-  </si>
-  <si>
-    <t>dried electrodes</t>
-  </si>
-  <si>
-    <t>electricity for battery production, medium voltage</t>
-  </si>
-  <si>
-    <t>electrolyte scrap</t>
-  </si>
-  <si>
-    <t>enclosed cell</t>
-  </si>
-  <si>
-    <t>extrusion, plastic film</t>
-  </si>
-  <si>
-    <t>gas release</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, natural gas for battery production</t>
-  </si>
-  <si>
-    <t>jelly roll</t>
-  </si>
-  <si>
-    <t>module electronics</t>
-  </si>
-  <si>
-    <t>polyethylene terephthalate, granulate, amorphous</t>
-  </si>
-  <si>
-    <t>polypropylene, granulate</t>
-  </si>
-  <si>
-    <t>separator (5um)</t>
-  </si>
-  <si>
-    <t>separator (7um)</t>
-  </si>
-  <si>
-    <t>separator (9um)</t>
-  </si>
-  <si>
-    <t>separator scrap</t>
-  </si>
-  <si>
-    <t>sheet rolling, aluminium</t>
-  </si>
-  <si>
-    <t>slitted anode</t>
-  </si>
-  <si>
-    <t>slitted cathode</t>
-  </si>
-  <si>
-    <t>unformated cell</t>
-  </si>
-  <si>
-    <t>waste anode current collector Cu</t>
-  </si>
-  <si>
-    <t>waste anode slurry</t>
-  </si>
-  <si>
-    <t>waste cathode current collector Al</t>
-  </si>
-  <si>
-    <t>waste cathode slurry</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
-  </si>
-  <si>
-    <t>welded jelly roll</t>
-  </si>
-  <si>
-    <t>module tab</t>
-  </si>
-  <si>
     <t>module row rack</t>
   </si>
   <si>
     <t>BatPaC</t>
   </si>
   <si>
-    <t>battery jacket steel</t>
-  </si>
-  <si>
-    <t>battery jacket aluminium</t>
-  </si>
-  <si>
     <t>cooling panels</t>
   </si>
   <si>
-    <t>cooling mains fe</t>
-  </si>
-  <si>
     <t>cathode active material (50%/50% NMC532/LMO - )</t>
+  </si>
+  <si>
+    <t>battery jacket Al</t>
+  </si>
+  <si>
+    <t>battery jacket Fe</t>
+  </si>
+  <si>
+    <t>cooling mains Fe</t>
+  </si>
+  <si>
+    <t>module tabs</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>36</v>
@@ -1530,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
@@ -1551,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1669,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1681,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1766,16 +1598,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>23</v>
@@ -1787,10 +1619,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>39</v>
@@ -1903,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0478C09-3B6A-4E3E-8C6B-6D4AB899ADBA}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,7 +1887,7 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C10" s="30">
         <v>1</v>
@@ -2069,7 +1901,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C11" s="30">
         <v>1</v>
@@ -2097,7 +1929,7 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="30">
         <v>0.82</v>
@@ -2108,7 +1940,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -2139,7 +1971,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="30">
         <v>1</v>
@@ -2148,1984 +1980,897 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="30">
+        <v>161</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C19" s="30">
+        <v>9.1985660247771758E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.19857235545771526</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.11907728319552988</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.1186254463008677</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C23" s="30">
+        <v>5.9101550025468665E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>160</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="30">
+        <v>5.9538641597764938E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C25">
+      <c r="C29" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C26">
+      <c r="C30" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C27">
+      <c r="C31" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28">
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33">
+        <v>82</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="30">
         <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34">
+        <v>115</v>
+      </c>
+      <c r="C34" s="30">
         <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35">
+        <v>116</v>
+      </c>
+      <c r="C35" s="30">
         <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37">
+        <v>124</v>
+      </c>
+      <c r="C37" s="30">
         <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39">
+        <v>82</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="30">
         <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40">
+        <v>164</v>
+      </c>
+      <c r="C40" s="30">
         <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.35401876267748483</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>74</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="30">
+        <v>4.3990872210953352E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>75</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="30">
+        <v>4.3370071582774693E-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>76</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="30">
+        <v>7.22190714542153E-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49"/>
+      <c r="C49" s="30">
+        <v>7.7618148173289853E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>78</v>
       </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="C50" s="31">
+        <v>7.7497491461397228E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="C51" s="42">
+        <v>7.7203428438238325E-2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C52" s="30">
+        <v>7.6928558420890122E-2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="C53" s="30">
+        <v>4.0846412556053813E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="A54" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="40">
+        <v>5.7573220104670678E-3</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="A55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="40">
+        <v>5.7573220104670678E-3</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="A56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="40">
+        <v>5.7573220104670678E-3</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C57" s="30">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.59303488239972735</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0.18512752772521426</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.16652229608253208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="C61" s="31">
+        <v>0.1105936198840942</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C62" s="30">
+        <v>5.509993481077971E-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="C63" s="30">
+        <v>0.37977858924112973</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48875869568610719</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C65" s="30">
+        <v>0.19783103663537183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.29658184695441875</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C67" s="31">
+        <v>0.35454776611185862</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.47104727670052809</v>
+      </c>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.14829092347720937</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1963108519269777</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>155</v>
-      </c>
-      <c r="B74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>155</v>
-      </c>
-      <c r="B82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" t="s">
-        <v>191</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>195</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>155</v>
-      </c>
-      <c r="B91" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92" t="s">
-        <v>119</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>155</v>
-      </c>
-      <c r="B94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" t="s">
-        <v>200</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>155</v>
-      </c>
-      <c r="B103" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>155</v>
-      </c>
-      <c r="B104" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>155</v>
-      </c>
-      <c r="B105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>155</v>
-      </c>
-      <c r="B106" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" t="s">
-        <v>205</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>155</v>
-      </c>
-      <c r="B108" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" t="s">
-        <v>207</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>155</v>
-      </c>
-      <c r="B110" t="s">
-        <v>208</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>155</v>
-      </c>
-      <c r="B111" t="s">
-        <v>209</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>155</v>
-      </c>
-      <c r="B113" t="s">
-        <v>211</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>155</v>
-      </c>
-      <c r="B114" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" t="s">
-        <v>147</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
+        <v>0.46743492060321917</v>
+      </c>
+      <c r="D71" t="s">
         <v>57</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>53</v>
-      </c>
-      <c r="B116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" s="30">
-        <v>9.1985660247771758E-2</v>
-      </c>
-      <c r="D116" t="s">
-        <v>57</v>
-      </c>
-      <c r="E116" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" s="30">
-        <v>0.19857235545771526</v>
-      </c>
-      <c r="D117" t="s">
-        <v>57</v>
-      </c>
-      <c r="E117" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>53</v>
-      </c>
-      <c r="B118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" s="30">
-        <v>0.11907728319552988</v>
-      </c>
-      <c r="D118" t="s">
-        <v>57</v>
-      </c>
-      <c r="E118" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>53</v>
-      </c>
-      <c r="B119" t="s">
-        <v>79</v>
-      </c>
-      <c r="C119" s="30">
-        <v>0.1186254463008677</v>
-      </c>
-      <c r="D119" t="s">
-        <v>57</v>
-      </c>
-      <c r="E119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>53</v>
-      </c>
-      <c r="B120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" s="30">
-        <v>5.9101550025468665E-2</v>
-      </c>
-      <c r="D120" t="s">
-        <v>57</v>
-      </c>
-      <c r="E120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>53</v>
-      </c>
-      <c r="B121" t="s">
-        <v>220</v>
-      </c>
-      <c r="C121" s="30">
-        <v>5.9538641597764938E-2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>57</v>
-      </c>
-      <c r="E121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="30">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="C123" s="30">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C124" s="30">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C125" s="30">
-        <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C126" s="30">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>82</v>
-      </c>
-      <c r="B127" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="30">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>82</v>
-      </c>
-      <c r="B128" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128" s="30">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>82</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C129" s="30">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>82</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C130" s="30">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B131" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="30">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>82</v>
-      </c>
-      <c r="B132" t="s">
-        <v>116</v>
-      </c>
-      <c r="C132" s="30">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>82</v>
-      </c>
-      <c r="B133" t="s">
-        <v>118</v>
-      </c>
-      <c r="C133" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="D133" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" t="s">
-        <v>126</v>
-      </c>
-      <c r="C134" s="30">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>82</v>
-      </c>
-      <c r="B135" t="s">
-        <v>127</v>
-      </c>
-      <c r="C135" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>82</v>
-      </c>
-      <c r="B136" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" s="30">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>65</v>
-      </c>
-      <c r="B137" t="s">
-        <v>74</v>
-      </c>
-      <c r="C137">
-        <v>0.35401876267748483</v>
-      </c>
-      <c r="D137" t="s">
-        <v>57</v>
-      </c>
-      <c r="E137" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="30">
-        <v>4.3990872210953352E-2</v>
-      </c>
-      <c r="D138" t="s">
-        <v>57</v>
-      </c>
-      <c r="E138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>54</v>
-      </c>
-      <c r="B139" t="s">
-        <v>75</v>
-      </c>
-      <c r="C139" s="30">
-        <v>4.3370071582774693E-2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>57</v>
-      </c>
-      <c r="E139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>54</v>
-      </c>
-      <c r="B140" t="s">
-        <v>76</v>
-      </c>
-      <c r="C140" s="30">
-        <v>7.22190714542153E-2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>57</v>
-      </c>
-      <c r="E140" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>54</v>
-      </c>
-      <c r="B141" t="s">
-        <v>77</v>
-      </c>
-      <c r="C141" s="30">
-        <v>7.7618148173289853E-2</v>
-      </c>
-      <c r="D141" t="s">
-        <v>57</v>
-      </c>
-      <c r="E141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>54</v>
-      </c>
-      <c r="B142" t="s">
-        <v>78</v>
-      </c>
-      <c r="C142" s="31">
-        <v>7.7497491461397228E-2</v>
-      </c>
-      <c r="D142" t="s">
-        <v>57</v>
-      </c>
-      <c r="E142" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C143" s="42">
-        <v>7.7203428438238325E-2</v>
-      </c>
-      <c r="D143" t="s">
-        <v>57</v>
-      </c>
-      <c r="E143" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>54</v>
-      </c>
-      <c r="B144" t="s">
-        <v>80</v>
-      </c>
-      <c r="C144" s="30">
-        <v>7.6928558420890122E-2</v>
-      </c>
-      <c r="D144" t="s">
-        <v>57</v>
-      </c>
-      <c r="E144" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>54</v>
-      </c>
-      <c r="B145" t="s">
-        <v>220</v>
-      </c>
-      <c r="C145" s="30">
-        <v>4.0846412556053813E-2</v>
-      </c>
-      <c r="D145" t="s">
-        <v>57</v>
-      </c>
-      <c r="E145" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C146" s="40">
-        <v>5.7573220104670678E-3</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B147" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C147" s="40">
-        <v>5.7573220104670678E-3</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C148" s="40">
-        <v>5.7573220104670678E-3</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>56</v>
-      </c>
-      <c r="B149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C149" s="30">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>57</v>
-      </c>
-      <c r="E149" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>56</v>
-      </c>
-      <c r="B150" t="s">
-        <v>75</v>
-      </c>
-      <c r="C150">
-        <v>0.59303488239972735</v>
-      </c>
-      <c r="D150" t="s">
-        <v>57</v>
-      </c>
-      <c r="E150" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>56</v>
-      </c>
-      <c r="B151" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="30">
-        <v>0.18512752772521426</v>
-      </c>
-      <c r="D151" t="s">
-        <v>57</v>
-      </c>
-      <c r="E151" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>56</v>
-      </c>
-      <c r="B152" t="s">
-        <v>78</v>
-      </c>
-      <c r="C152">
-        <v>0.16652229608253208</v>
-      </c>
-      <c r="D152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E152" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>56</v>
-      </c>
-      <c r="B153" t="s">
-        <v>79</v>
-      </c>
-      <c r="C153" s="31">
-        <v>0.1105936198840942</v>
-      </c>
-      <c r="D153" t="s">
-        <v>57</v>
-      </c>
-      <c r="E153" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>56</v>
-      </c>
-      <c r="B154" t="s">
-        <v>80</v>
-      </c>
-      <c r="C154" s="30">
-        <v>5.509993481077971E-2</v>
-      </c>
-      <c r="D154" t="s">
-        <v>57</v>
-      </c>
-      <c r="E154" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>56</v>
-      </c>
-      <c r="B155" t="s">
-        <v>220</v>
-      </c>
-      <c r="C155" s="30">
-        <v>0.37977858924112973</v>
-      </c>
-      <c r="D155" t="s">
-        <v>57</v>
-      </c>
-      <c r="E155" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>55</v>
-      </c>
-      <c r="B156" t="s">
-        <v>76</v>
-      </c>
-      <c r="C156">
-        <v>0.48875869568610719</v>
-      </c>
-      <c r="D156" t="s">
-        <v>57</v>
-      </c>
-      <c r="E156" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>55</v>
-      </c>
-      <c r="B157" t="s">
-        <v>77</v>
-      </c>
-      <c r="C157" s="30">
-        <v>0.19783103663537183</v>
-      </c>
-      <c r="D157" t="s">
-        <v>57</v>
-      </c>
-      <c r="E157" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>55</v>
-      </c>
-      <c r="B158" t="s">
-        <v>78</v>
-      </c>
-      <c r="C158">
-        <v>0.29658184695441875</v>
-      </c>
-      <c r="D158" t="s">
-        <v>57</v>
-      </c>
-      <c r="E158" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>55</v>
-      </c>
-      <c r="B159" t="s">
-        <v>79</v>
-      </c>
-      <c r="C159" s="31">
-        <v>0.35454776611185862</v>
-      </c>
-      <c r="D159" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>55</v>
-      </c>
-      <c r="B160" t="s">
-        <v>80</v>
-      </c>
-      <c r="C160">
-        <v>0.47104727670052809</v>
-      </c>
-      <c r="D160" t="s">
-        <v>57</v>
-      </c>
-      <c r="E160" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>55</v>
-      </c>
-      <c r="B161" t="s">
-        <v>220</v>
-      </c>
-      <c r="C161">
-        <v>0.14829092347720937</v>
-      </c>
-      <c r="D161" t="s">
-        <v>57</v>
-      </c>
-      <c r="E161" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>66</v>
-      </c>
-      <c r="B162" t="s">
-        <v>74</v>
-      </c>
-      <c r="C162">
-        <v>0.1963108519269777</v>
-      </c>
-      <c r="D162" t="s">
-        <v>57</v>
-      </c>
-      <c r="E162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>130</v>
-      </c>
-      <c r="B163" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163">
-        <v>0.46743492060321917</v>
-      </c>
-      <c r="D163" t="s">
-        <v>57</v>
-      </c>
-      <c r="E163" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>82</v>
-      </c>
-      <c r="B164" t="s">
-        <v>213</v>
-      </c>
-      <c r="C164" s="30">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>65</v>
-      </c>
-      <c r="B165" t="s">
-        <v>214</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="s">
-        <v>57</v>
-      </c>
-      <c r="E165" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>65</v>
-      </c>
-      <c r="B166" t="s">
-        <v>216</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" t="s">
-        <v>57</v>
-      </c>
-      <c r="E166" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>64</v>
-      </c>
-      <c r="B167" t="s">
-        <v>217</v>
-      </c>
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167" t="s">
-        <v>57</v>
-      </c>
-      <c r="E167" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>65</v>
-      </c>
-      <c r="B168" t="s">
-        <v>218</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>57</v>
-      </c>
-      <c r="E168" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>65</v>
-      </c>
-      <c r="B169" t="s">
-        <v>219</v>
-      </c>
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" t="s">
-        <v>215</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E169" xr:uid="{B0478C09-3B6A-4E3E-8C6B-6D4AB899ADBA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E163">
-      <sortCondition ref="A1:A163"/>
+  <autoFilter ref="A1:E71" xr:uid="{B0478C09-3B6A-4E3E-8C6B-6D4AB899ADBA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E71">
+      <sortCondition ref="A1:A71"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7534,10 +6279,10 @@
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -7628,7 +6373,7 @@
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B35">
         <v>151.905</v>
@@ -7912,7 +6657,7 @@
     </row>
     <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="26"/>
@@ -8004,7 +6749,7 @@
     </row>
     <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39">
         <v>60.084299999999999</v>
@@ -8101,7 +6846,7 @@
     </row>
     <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40">
         <v>28.0855</v>
@@ -8376,13 +7121,13 @@
     </row>
     <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>152</v>
-      </c>
-      <c r="C43" t="s">
-        <v>154</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -8576,7 +7321,7 @@
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45">
         <v>0.9</v>
@@ -8679,7 +7424,7 @@
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B46">
         <v>1.38</v>

--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Values_Master!$A$1:$E$71</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -545,8 +545,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1071,7 +1071,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1120,7 +1120,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,6 +1192,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,8 +1203,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0478C09-3B6A-4E3E-8C6B-6D4AB899ADBA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3171,7 @@
   <dimension ref="A2:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3202,7 +3202,7 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="22"/>
@@ -3254,47 +3254,47 @@
         <v>76</v>
       </c>
       <c r="B6" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A6, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B22</f>
+        <f t="shared" ref="B6:B14" ca="1" si="0">OFFSET($F$21,  MATCH($A6, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B22</f>
         <v>7.1984876122741057E-2</v>
       </c>
       <c r="C6" s="29">
-        <f t="shared" ref="C6:L6" ca="1" si="0">OFFSET($F$21,  MATCH($A6, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B22</f>
+        <f t="shared" ref="C6:L6" ca="1" si="1">OFFSET($F$21,  MATCH($A6, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B22</f>
         <v>0.20278606364500296</v>
       </c>
       <c r="D6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.18976437296297841</v>
       </c>
       <c r="E6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.20354595010390092</v>
       </c>
       <c r="F6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0.33191873716537662</v>
       </c>
       <c r="K6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3303,47 +3303,47 @@
         <v>77</v>
       </c>
       <c r="B7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7.1590674644109759E-2</v>
       </c>
       <c r="C7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ref="C7:L7" ca="1" si="2">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B23</f>
         <v>0.36337940994429546</v>
       </c>
       <c r="D7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.11334846296678358</v>
       </c>
       <c r="E7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.12158035898493916</v>
       </c>
       <c r="F7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3301010934598721</v>
       </c>
       <c r="K7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A7, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B23</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3352,47 +3352,47 @@
         <v>78</v>
       </c>
       <c r="B8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7.1870178018495698E-2</v>
       </c>
       <c r="C8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ref="C8:L8" ca="1" si="3">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B24</f>
         <v>0.30399842589811832</v>
       </c>
       <c r="D8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.17068649482721124</v>
       </c>
       <c r="E8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.12205503143025798</v>
       </c>
       <c r="F8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="H8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0.33138986982591673</v>
       </c>
       <c r="K8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L8" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A8, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B24</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3401,47 +3401,47 @@
         <v>79</v>
       </c>
       <c r="B9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7.132946194562928E-2</v>
       </c>
       <c r="C9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ref="C9:L9" ca="1" si="4">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B25</f>
         <v>0.48273806464874869</v>
       </c>
       <c r="D9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5.6467444370214295E-2</v>
       </c>
       <c r="E9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6.0568374531065325E-2</v>
       </c>
       <c r="F9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0.32889665450434247</v>
       </c>
       <c r="K9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A9, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B25</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3450,47 +3450,47 @@
         <v>80</v>
       </c>
       <c r="B10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7.22190714542153E-2</v>
       </c>
       <c r="C10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ref="C10:L10" ca="1" si="5">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B26</f>
         <v>0.48875869568610719</v>
       </c>
       <c r="D10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="E10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>9.1985660247771758E-2</v>
       </c>
       <c r="F10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1.4037972246647903E-2</v>
       </c>
       <c r="G10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="H10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="I10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="J10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3329986003652578</v>
       </c>
       <c r="K10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A10, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B26</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3499,47 +3499,47 @@
         <v>66</v>
       </c>
       <c r="B11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.3990872210953352E-2</v>
       </c>
       <c r="C11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ref="C11:L11" ca="1" si="6">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B27</f>
         <v>0</v>
       </c>
       <c r="D11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="E11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="F11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="G11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.35401876267748483</v>
       </c>
       <c r="H11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.1963108519269777</v>
       </c>
       <c r="I11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="J11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0.40567951318458423</v>
       </c>
       <c r="K11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="L11" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A11, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B27</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3548,47 +3548,47 @@
         <v>83</v>
       </c>
       <c r="B12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4.3370071582774693E-2</v>
       </c>
       <c r="C12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ref="C12:L12" ca="1" si="7">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B28</f>
         <v>0</v>
       </c>
       <c r="D12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.59303488239972735</v>
       </c>
       <c r="E12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="F12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="G12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="H12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="I12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0.36359504601749804</v>
       </c>
       <c r="K12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="L12" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A12, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B28</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3597,47 +3597,47 @@
         <v>85</v>
       </c>
       <c r="B13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6.0445063798284203E-2</v>
       </c>
       <c r="C13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ref="C13:L13" ca="1" si="8">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B29</f>
         <v>0</v>
       </c>
       <c r="D13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="E13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="F13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="G13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="H13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="I13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.5214910943692026</v>
       </c>
       <c r="J13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.41806384183251316</v>
       </c>
       <c r="K13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L13" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A13, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B29</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3646,47 +3646,47 @@
         <v>87</v>
       </c>
       <c r="B14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ref="C14:L14" ca="1" si="9">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(C$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(C$5, $G$20:$Q$20, 0)) /$B30</f>
         <v>0</v>
       </c>
       <c r="D14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(D$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(D$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="E14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(E$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(E$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="F14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(F$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(F$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="G14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(G$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(G$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="H14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(H$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(H$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="I14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(I$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(I$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="J14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(J$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(J$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="K14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(K$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(K$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="L14" s="29">
-        <f ca="1">OFFSET($F$21,  MATCH($A14, $A$22:$A$31,0), MATCH(L$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(L$5, $G$20:$Q$20, 0)) /$B30</f>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -3713,58 +3713,58 @@
         <v>5.7620124800635192E-2</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" ref="C16:L16" ca="1" si="1">(C8*0.5)+(C12*0.5)</f>
+        <f t="shared" ref="C16:L16" ca="1" si="10">(C8*0.5)+(C12*0.5)</f>
         <v>0.15199921294905916</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.38186068861346928</v>
       </c>
       <c r="E16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>6.1027515715128988E-2</v>
       </c>
       <c r="F16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="H16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="I16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0.34749245792170735</v>
       </c>
       <c r="K16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L16" s="29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="63" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
@@ -3933,7 +3933,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="44">
-        <f t="shared" ref="D23:D29" si="2">G23/3600*1000*96485/B23</f>
+        <f t="shared" ref="D23:D29" si="11">G23/3600*1000*96485/B23</f>
         <v>276.47399307704654</v>
       </c>
       <c r="E23" s="44" t="s">
@@ -3978,7 +3978,7 @@
         <v>161</v>
       </c>
       <c r="D24" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>277.55339922008318</v>
       </c>
       <c r="E24" s="44" t="s">
@@ -4023,7 +4023,7 @@
         <v>212</v>
       </c>
       <c r="D25" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>275.46522317579411</v>
       </c>
       <c r="E25" s="44" t="s">
@@ -4068,7 +4068,7 @@
         <v>200</v>
       </c>
       <c r="D26" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>278.90078087015542</v>
       </c>
       <c r="E26" s="44" t="s">
@@ -4110,7 +4110,7 @@
         <v>150</v>
       </c>
       <c r="D27" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>169.88709995492451</v>
       </c>
       <c r="E27" s="44" t="s">
@@ -4150,7 +4150,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>167.48964764105094</v>
       </c>
       <c r="E28" s="44" t="s">
@@ -4188,7 +4188,7 @@
         <v>170</v>
       </c>
       <c r="D29" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>233.43107511116921</v>
       </c>
       <c r="E29" s="44" t="s">

--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="793" documentId="6_{1829D431-C2FB-4377-8E69-3055CEEDA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1016B1EA-D387-4E98-AEFE-1C2684B84A1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="4680" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -2025,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0478C09-3B6A-4E3E-8C6B-6D4AB899ADBA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_MC_element_goods_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="793" documentId="6_{1829D431-C2FB-4377-8E69-3055CEEDA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1016B1EA-D387-4E98-AEFE-1C2684B84A1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5012D43E-30BE-456A-82F4-A70BB45C508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="4680" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,8 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -44,30 +43,16 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="157">
   <si>
     <t>Date created</t>
   </si>
@@ -195,9 +180,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>No_Cols</t>
-  </si>
-  <si>
     <t>DATA_Info</t>
   </si>
   <si>
@@ -432,18 +414,12 @@
     <t>Element content of battery materials</t>
   </si>
   <si>
-    <t>Ni, Co, Mn, Li, Al, P, Fe, Cu, C</t>
-  </si>
-  <si>
     <t>Goods</t>
   </si>
   <si>
     <t>Goods embedded in battery</t>
   </si>
   <si>
-    <t>mass</t>
-  </si>
-  <si>
     <t>Chemical_Elements</t>
   </si>
   <si>
@@ -538,6 +514,15 @@
   </si>
   <si>
     <t>From BatPaC V5:</t>
+  </si>
+  <si>
+    <t>elements</t>
+  </si>
+  <si>
+    <t>No_Rows</t>
+  </si>
+  <si>
+    <t>Element composition of goods</t>
   </si>
 </sst>
 </file>
@@ -1234,68 +1219,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>8</v>
-    <v>0</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1622,7 +1545,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1562,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>36</v>
@@ -1650,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
@@ -1671,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1683,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1753,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>44255</v>
+        <v>44714</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1789,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1801,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1853,14 +1776,14 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="18" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="D21" ca="1">Values_Master!C:C</f>
-        <v>#VALUE!</v>
+        <v>155</v>
+      </c>
+      <c r="D21" s="18">
+        <f>COUNTA(Values_Master!A:A)</f>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -1869,16 +1792,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1886,16 +1809,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>23</v>
@@ -1907,16 +1830,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>23</v>
@@ -1947,7 +1870,7 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="11"/>
@@ -1956,6 +1879,7 @@
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
       <c r="F28" s="9"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1963,6 +1887,7 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2025,14 +1950,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0478C09-3B6A-4E3E-8C6B-6D4AB899ADBA}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -2040,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>41</v>
@@ -2057,1102 +1982,1111 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>0.46743492060321917</v>
       </c>
       <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16">
         <v>6.1027515715128988E-2</v>
       </c>
       <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
         <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17">
         <v>5.7620124800635192E-2</v>
       </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <v>0.38186068861346928</v>
       </c>
       <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>0.15199921294905916</v>
       </c>
       <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>0.35401876267748483</v>
       </c>
       <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>4.3990872210953352E-2</v>
       </c>
       <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
         <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
         <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>0.1963108519269777</v>
       </c>
       <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
         <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>4.3370071582774693E-2</v>
       </c>
       <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
         <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>0.59303488239972735</v>
       </c>
       <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>1.4037972246647903E-2</v>
       </c>
       <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
         <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>9.1985660247771758E-2</v>
       </c>
       <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
         <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>7.22190714542153E-2</v>
       </c>
       <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
         <v>55</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>0.48875869568610719</v>
       </c>
       <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
         <v>55</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>0.20354595010390092</v>
       </c>
       <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
         <v>55</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <v>7.1984876122741057E-2</v>
       </c>
       <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
         <v>55</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>0.18976437296297841</v>
       </c>
       <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
         <v>55</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>0.20278606364500296</v>
       </c>
       <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s">
         <v>55</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34">
         <v>0.12205503143025798</v>
       </c>
       <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
         <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <v>7.1870178018495698E-2</v>
       </c>
       <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
         <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>0.17068649482721124</v>
       </c>
       <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s">
         <v>55</v>
-      </c>
-      <c r="E36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <v>0.30399842589811832</v>
       </c>
       <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
         <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>0.12158035898493916</v>
       </c>
       <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
         <v>55</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>7.1590674644109759E-2</v>
       </c>
       <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
         <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>0.11334846296678358</v>
       </c>
       <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
         <v>55</v>
-      </c>
-      <c r="E40" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>0.36337940994429546</v>
       </c>
       <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
         <v>55</v>
-      </c>
-      <c r="E41" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>6.0568374531065325E-2</v>
       </c>
       <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
         <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>7.132946194562928E-2</v>
       </c>
       <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
         <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44">
         <v>5.6467444370214295E-2</v>
       </c>
       <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
         <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C45">
         <v>0.48273806464874869</v>
       </c>
       <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
         <v>55</v>
-      </c>
-      <c r="E45" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C55">
         <v>0.82</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <v>5.7573220104670678E-3</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62">
         <v>5.7573220104670678E-3</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>5.7573220104670678E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68">
         <v>0.8</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71">
         <v>0.9</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3203,55 +3137,55 @@
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" s="22"/>
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>54</v>
-      </c>
       <c r="E5" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="I5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="29">
         <f t="shared" ref="B6:B14" ca="1" si="0">OFFSET($F$21,  MATCH($A6, $A$22:$A$31,0), MATCH(B$5, $G$20:$Q$20, 0))*INDEX($G$21:$Q$21, MATCH(B$5, $G$20:$Q$20, 0)) /$B22</f>
@@ -3300,7 +3234,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3349,7 +3283,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3398,7 +3332,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3447,7 +3381,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3496,7 +3430,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3545,7 +3479,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3594,7 +3528,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3643,7 +3577,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="29">
         <f t="shared" ca="1" si="0"/>
@@ -3706,7 +3640,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B16" s="29">
         <f ca="1">(B8*0.5)+(B12*0.5)</f>
@@ -3755,12 +3689,12 @@
     </row>
     <row r="18" spans="1:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -3782,55 +3716,55 @@
     </row>
     <row r="20" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="E20" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>148</v>
-      </c>
       <c r="F20" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="25" t="s">
+      <c r="L20" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="M20" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="N20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="O20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="P20" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="Q20" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="R20" s="37"/>
     </row>
@@ -3841,7 +3775,7 @@
       <c r="D21" s="62"/>
       <c r="E21" s="38"/>
       <c r="F21" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="26">
         <v>6.94</v>
@@ -3878,7 +3812,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="42" cm="1">
         <f t="array" ref="B22">SUM($G$21:$AJ$21*G22:AJ22)</f>
@@ -3892,7 +3826,7 @@
         <v>277.99634857119241</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="46">
@@ -3923,7 +3857,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="42" cm="1">
         <f t="array" ref="B23">SUM($G$21:$AJ$21*G23:AJ23)</f>
@@ -3937,7 +3871,7 @@
         <v>276.47399307704654</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50">
@@ -3968,7 +3902,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="42" cm="1">
         <f t="array" ref="B24">SUM($G$21:$AJ$21*G24:AJ24)</f>
@@ -3982,7 +3916,7 @@
         <v>277.55339922008318</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F24" s="50"/>
       <c r="G24" s="50">
@@ -4013,7 +3947,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="42" cm="1">
         <f t="array" ref="B25">SUM($G$21:$AJ$21*G25:AJ25)</f>
@@ -4027,7 +3961,7 @@
         <v>275.46522317579411</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F25" s="50"/>
       <c r="G25" s="50">
@@ -4058,7 +3992,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="42" cm="1">
         <f t="array" ref="B26">SUM($G$21:$AJ$21*G26:AJ26)</f>
@@ -4072,7 +4006,7 @@
         <v>278.90078087015542</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50">
@@ -4100,7 +4034,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="42" cm="1">
         <f t="array" ref="B27">SUM($G$21:$AJ$21*G27:AJ27)</f>
@@ -4114,7 +4048,7 @@
         <v>169.88709995492451</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="50"/>
       <c r="G27" s="50">
@@ -4140,7 +4074,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="42" cm="1">
         <f t="array" ref="B28">SUM($G$21:$AJ$21*G28:AJ28)</f>
@@ -4154,7 +4088,7 @@
         <v>167.48964764105094</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50">
@@ -4178,7 +4112,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="42" cm="1">
         <f t="array" ref="B29">SUM($G$21:$AJ$21*G29:AJ29)</f>
@@ -4192,7 +4126,7 @@
         <v>233.43107511116921</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="50">
@@ -4216,7 +4150,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="42" cm="1">
         <f t="array" ref="B30">SUM($G$21:$AJ$21*G30:AJ30)</f>
@@ -4230,7 +4164,7 @@
         <v>372.24151234567904</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
